--- a/medicine/Enfance/Chris_Grabenstein/Chris_Grabenstein.xlsx
+++ b/medicine/Enfance/Chris_Grabenstein/Chris_Grabenstein.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chris Grabenstein, né le 2 septembre 1955 à Buffalo, dans l'État de New York, aux États-Unis, est un écrivain américain, auteur de roman policier et de littérature d'enfance et de jeunesse.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Chris Grabenstein fait ses études supérieures à l'université du Tennessee, où il obtient en 1977 un diplôme en communications.
 En 2005, il publie Tilt-a-whirl, titre lauréat du prix Anthony 2006 du meilleur premier roman, qui inaugure une série policière ayant pour héros John Ceepak. Ancien membre de la police militaire en Iraq, Ceepak est devenu un policier chevronné de la côte du New Jersey et mène ses enquêtes avec l'aide Danny Boyle, jeune recrue de 24 ans qui n'est à l'emploi de la police de l'État que pendant la saison estivale.
@@ -547,8 +561,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Série John Ceepak
-(en) Tilt-a-whirl, 2005
+          <t>Série John Ceepak</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>(en) Tilt-a-whirl, 2005
 (en) Mad Mouse, 2006
 (en) Whack-a-Mole, 2007
 (en) Hell Hole, 2008
@@ -556,56 +575,7 @@
 (en) Rolling Thunder, 2010
 (en) Ring Toss, 2011, recueil de nouvelles
 (en) Fun House, 2012
-(en) Free Fall, 2013
-Série Christopher Miller
-(en) Slay Ride, 2006
-(en) Hell for the Holidays, 2007
-Série Haunted
-(en) The Crossroads, 2008
-(en) The Hanging Hill, 2009
-(en) The Smoky Corridor, 2010
-(en) The Black Heart Crypt, 2011
-Série Ocean's Eleven
-(en) Riley Mack and the Other Known Troublemakers, 2012
-(en) Riley Mack Stirs Up More Trouble, 2013
-Série Mr. Lemoncello
-Vingt-quatre heures dans l'incroyable bibliothèque de M. Lemoncello (en), Milan, 2017 ((en) Escape from Mr. Lemoncello's Library, 2013)
-Une semaine dans l'incroyable bibliothèque de M. Lemoncello, Milan, 2018 ((en) Mr. Lemoncello's Library Olympics, 2016)
-Romans indépendants
-(en) Don't Call Me Christina Kringle, 2013
-(en) The Explorers' Gate, 2014
-(en) The Island of Dr. Libris, 2015
-Recueils de nouvelles
-(en) The Christmas Tree Thief, 2008
-Nouvelle
-(en) The Demon in the Dunes, 2010
-Ouvrages coécrits avec James Patterson
-Série Daniel X
- (en) Armageddon, 2012
-(en) Lights Out, 2015
-Série Jamie Grimm
-Moi, marrant ?!, Hachette Jeunesse, 2017 ((en) I, Funny, 2012)
-(en) I, Even Funnier, 2013
-(en) I, Totally Funniest, 2015
-(en) I, Funny TV, 2015
-Série Chasseurs de trésors
-Chasseurs de trésors, Hachette Jeunesse, 2014 ((en) Treasure Hunters, 2013)Coécrit avec Mark Shulman (en).
-Danger sur le Nil, Hachette Jeunesse, 2015 ((en) Danger Down The Nile, 2014)
-(en) Secret of the Forbidden City, 2015
-(en) Peril at the Top of the World, 2016
-Série Les Robots et moi
-Les Robots et moi, Hachette Jeunesse, 2016 ((en) House of Robots, 2014)
-Les robots se déchaînent, Hachette Jeunesse, 2016 ((en) Robots Go Wild!, 2015)
-(en) Robot Revolution, 2017
-Série Middle School: Jacky Ha-Ha
-Jacky Ha-Ha, Hachette Jeunesse, 2017 ((en) Jacky Ha-Ha, 2016)
-(en) My Life Is a Joke, 2017
-Série Miss Einstein
-Miss Einstein, Hachette Jeunesse, 2019 ((en) The Genius Experiment, 2018)
-(en) Rebels with a Cause, 2019
-Romans indépendants
-Nom d'une moustache !, Hachette Jeunesse, 2019 ((en) Word of Mouse, 2016)
-La Guerre des surnoms, Hachette Jeunesse, 2018 ((en) Pottymouth and Stoopid, 2017)</t>
+(en) Free Fall, 2013</t>
         </is>
       </c>
     </row>
@@ -630,17 +600,574 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Série Christopher Miller</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>(en) Slay Ride, 2006
+(en) Hell for the Holidays, 2007</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Chris_Grabenstein</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chris_Grabenstein</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Série Haunted</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>(en) The Crossroads, 2008
+(en) The Hanging Hill, 2009
+(en) The Smoky Corridor, 2010
+(en) The Black Heart Crypt, 2011</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Chris_Grabenstein</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chris_Grabenstein</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Série Ocean's Eleven</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>(en) Riley Mack and the Other Known Troublemakers, 2012
+(en) Riley Mack Stirs Up More Trouble, 2013</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Chris_Grabenstein</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chris_Grabenstein</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Série Mr. Lemoncello</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Vingt-quatre heures dans l'incroyable bibliothèque de M. Lemoncello (en), Milan, 2017 ((en) Escape from Mr. Lemoncello's Library, 2013)
+Une semaine dans l'incroyable bibliothèque de M. Lemoncello, Milan, 2018 ((en) Mr. Lemoncello's Library Olympics, 2016)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Chris_Grabenstein</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chris_Grabenstein</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Romans indépendants</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>(en) Don't Call Me Christina Kringle, 2013
+(en) The Explorers' Gate, 2014
+(en) The Island of Dr. Libris, 2015</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Chris_Grabenstein</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chris_Grabenstein</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Recueils de nouvelles</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>(en) The Christmas Tree Thief, 2008</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Chris_Grabenstein</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chris_Grabenstein</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Nouvelle</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>(en) The Demon in the Dunes, 2010</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Chris_Grabenstein</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chris_Grabenstein</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Ouvrages coécrits avec James Patterson</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Série Daniel X</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (en) Armageddon, 2012
+(en) Lights Out, 2015</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Chris_Grabenstein</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chris_Grabenstein</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Ouvrages coécrits avec James Patterson</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Série Jamie Grimm</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Moi, marrant ?!, Hachette Jeunesse, 2017 ((en) I, Funny, 2012)
+(en) I, Even Funnier, 2013
+(en) I, Totally Funniest, 2015
+(en) I, Funny TV, 2015</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Chris_Grabenstein</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chris_Grabenstein</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Ouvrages coécrits avec James Patterson</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Série Chasseurs de trésors</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Chasseurs de trésors, Hachette Jeunesse, 2014 ((en) Treasure Hunters, 2013)Coécrit avec Mark Shulman (en).
+Danger sur le Nil, Hachette Jeunesse, 2015 ((en) Danger Down The Nile, 2014)
+(en) Secret of the Forbidden City, 2015
+(en) Peril at the Top of the World, 2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Chris_Grabenstein</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chris_Grabenstein</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Ouvrages coécrits avec James Patterson</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Série Les Robots et moi</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Les Robots et moi, Hachette Jeunesse, 2016 ((en) House of Robots, 2014)
+Les robots se déchaînent, Hachette Jeunesse, 2016 ((en) Robots Go Wild!, 2015)
+(en) Robot Revolution, 2017</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Chris_Grabenstein</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chris_Grabenstein</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Ouvrages coécrits avec James Patterson</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Série Middle School: Jacky Ha-Ha</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Jacky Ha-Ha, Hachette Jeunesse, 2017 ((en) Jacky Ha-Ha, 2016)
+(en) My Life Is a Joke, 2017</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Chris_Grabenstein</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chris_Grabenstein</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Ouvrages coécrits avec James Patterson</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Série Miss Einstein</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Miss Einstein, Hachette Jeunesse, 2019 ((en) The Genius Experiment, 2018)
+(en) Rebels with a Cause, 2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Chris_Grabenstein</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chris_Grabenstein</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Ouvrages coécrits avec James Patterson</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Romans indépendants</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Nom d'une moustache !, Hachette Jeunesse, 2019 ((en) Word of Mouse, 2016)
+La Guerre des surnoms, Hachette Jeunesse, 2018 ((en) Pottymouth and Stoopid, 2017)</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Chris_Grabenstein</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chris_Grabenstein</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
           <t>Récompenses et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Prix
-Prix Anthony 2006 du meilleur premier roman pour Tilt-a-whirl[1]
-Prix Agatha 2008 meilleur roman de littérature d'enfance et de jeunesse pour The Crossroads[2]
-Prix Agatha 2009 meilleur roman de littérature d'enfance et de jeunesse pour The Hanging Hill[2]
-Prix Agatha 2011 meilleur roman de littérature d'enfance et de jeunesse pour The Black Heart Crypt[3]
-Prix Agatha 2013 meilleur roman de littérature d'enfance et de jeunesse pour Escape from Mr. Lemoncello's Library[3]</t>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Prix</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Prix Anthony 2006 du meilleur premier roman pour Tilt-a-whirl
+Prix Agatha 2008 meilleur roman de littérature d'enfance et de jeunesse pour The Crossroads
+Prix Agatha 2009 meilleur roman de littérature d'enfance et de jeunesse pour The Hanging Hill
+Prix Agatha 2011 meilleur roman de littérature d'enfance et de jeunesse pour The Black Heart Crypt
+Prix Agatha 2013 meilleur roman de littérature d'enfance et de jeunesse pour Escape from Mr. Lemoncello's Library</t>
         </is>
       </c>
     </row>
